--- a/03 GUI测试/WoniuBoss_GUI_Test/data/teachmanagement.xlsx
+++ b/03 GUI测试/WoniuBoss_GUI_Test/data/teachmanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" activeTab="2"/>
+    <workbookView windowWidth="23325" windowHeight="9840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -73,6 +73,9 @@
 stuNo=</t>
   </si>
   <si>
+    <t>search_pass</t>
+  </si>
+  <si>
     <t>search_02</t>
   </si>
   <si>
@@ -100,7 +103,7 @@
 sval=表现优秀通过技术面试</t>
   </si>
   <si>
-    <t>search_pass</t>
+    <t>interview_pass</t>
   </si>
   <si>
     <t>search_M05</t>
@@ -401,6 +404,9 @@
 s_time=2020-05-20
 e_time=2020-05-21</t>
     </r>
+  </si>
+  <si>
+    <t>query_pass</t>
   </si>
   <si>
     <t>query_02</t>
@@ -584,6 +590,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -607,6 +620,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -632,14 +683,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -656,58 +699,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,13 +733,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -737,12 +743,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -755,30 +827,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -797,36 +893,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -839,30 +905,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -882,42 +924,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,10 +1040,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1046,133 +1052,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1646,8 +1652,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1689,52 +1695,52 @@
       <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="67.5" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="4" ht="67.5" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1749,8 +1755,8 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1782,46 +1788,46 @@
     </row>
     <row r="2" ht="99.75" spans="1:6">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="99.75" spans="1:6">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:6">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" ht="71.25" spans="1:6">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1867,24 +1873,24 @@
     </row>
     <row r="2" ht="42.75" spans="1:6">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="42.75" spans="1:6">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
